--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/AdjustedDiscountCurve.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/AdjustedDiscountCurve.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA656CB-E760-43EA-BFB9-06EE961EE4E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="18960" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Adjusted Discount Curve" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -433,52 +442,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>369</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>734</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>769</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>860</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>951</c:v>
+                  <c:v>528</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1042</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1099</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>1102</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1133</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1224</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>1315</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1466</c:v>
+                  <c:v>1463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -490,52 +499,52 @@
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3.1988615252525054E-2</c:v>
+                  <c:v>3.1993238437115767E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1958947020863659E-2</c:v>
+                  <c:v>3.195505353249084E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1918720638635101E-2</c:v>
+                  <c:v>3.1914501251415484E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1877080850765127E-2</c:v>
+                  <c:v>3.1875366222113843E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1869687547656511E-2</c:v>
+                  <c:v>3.1384141183256054E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2860881398929509E-2</c:v>
+                  <c:v>3.1252932205518835E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2668879576789323E-2</c:v>
+                  <c:v>3.1877970649777376E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2659875501948044E-2</c:v>
+                  <c:v>3.1292549991530638E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2675962621443455E-2</c:v>
+                  <c:v>3.1361000812367701E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2710572398022553E-2</c:v>
+                  <c:v>3.1445389440407645E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3882889010339312E-2</c:v>
+                  <c:v>3.1539594822874717E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3887585570747669E-2</c:v>
+                  <c:v>3.2885968642908381E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2757259267656158E-2</c:v>
+                  <c:v>3.1686204411345287E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2755529140281459E-2</c:v>
+                  <c:v>3.3910899186571086E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2762649573854219E-2</c:v>
+                  <c:v>3.3910892687794014E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4272242587856105E-2</c:v>
+                  <c:v>3.4265057302265145E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,43 +587,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>769</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>860</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>951</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1042</c:v>
+                  <c:v>528</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1099</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>1133</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1224</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1315</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>1466</c:v>
+                  <c:v>1463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -626,46 +635,46 @@
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.9997534584254026E-2</c:v>
+                  <c:v>2.9999999999877902E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9997534584254026E-2</c:v>
+                  <c:v>2.9999999999877902E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9969740355837438E-2</c:v>
+                  <c:v>2.9964229288573785E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9932051201910781E-2</c:v>
+                  <c:v>2.9926236723387678E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9893033367962563E-2</c:v>
+                  <c:v>2.9889567904206604E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9875305502172766E-2</c:v>
+                  <c:v>2.9889175586716998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9872438969135162E-2</c:v>
+                  <c:v>2.9888327101937895E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9869129875100819E-2</c:v>
+                  <c:v>2.9886993615385604E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9865401995320395E-2</c:v>
+                  <c:v>2.9885227084615051E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.989003189570405E-2</c:v>
+                  <c:v>2.9883048102837817E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9861712588857836E-2</c:v>
+                  <c:v>2.9880470579864982E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.985716379332537E-2</c:v>
+                  <c:v>2.9877504425306345E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9852243630280606E-2</c:v>
+                  <c:v>2.9889258673500008E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9773270506699978E-2</c:v>
+                  <c:v>2.9773144694181797E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,7 +1188,7 @@
       </c>
       <c r="C3" s="23">
         <f ca="1">TODAY()</f>
-        <v>43133</v>
+        <v>43647</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
@@ -1195,7 +1204,7 @@
       </c>
       <c r="I3" s="23">
         <f ca="1">C3</f>
-        <v>43133</v>
+        <v>43647</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>1</v>
@@ -1211,7 +1220,7 @@
       </c>
       <c r="C4" s="23">
         <f ca="1">C3</f>
-        <v>43133</v>
+        <v>43647</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>15</v>
@@ -1227,7 +1236,7 @@
       </c>
       <c r="I4" s="23">
         <f ca="1">C4</f>
-        <v>43133</v>
+        <v>43647</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>2</v>
@@ -1274,7 +1283,7 @@
       </c>
       <c r="C6" s="23">
         <f ca="1">C3</f>
-        <v>43133</v>
+        <v>43647</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
@@ -1290,7 +1299,7 @@
       </c>
       <c r="I6" s="23">
         <f ca="1">C6</f>
-        <v>43133</v>
+        <v>43647</v>
       </c>
       <c r="L6" s="8"/>
     </row>
@@ -1571,368 +1580,368 @@
       </c>
       <c r="C21" s="20">
         <f ca="1"/>
-        <v>2.9997534584254026E-2</v>
+        <v>2.9999999999877902E-2</v>
       </c>
       <c r="D21" s="4">
         <f t="array" aca="1" ref="D21:E38" ca="1">_xll.HLV5r3.Financial.Cache.GetDaysAndRates( J16, C4, I18)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="20">
         <f ca="1"/>
-        <v>3.1988615252525054E-2</v>
+        <v>3.1993238437115767E-2</v>
       </c>
       <c r="F21" s="5">
         <f t="array" aca="1" ref="F21:G38" ca="1">_xll.HLV5r3.Financial.Cache.GetTermCurve( J16)</f>
-        <v>43136</v>
+        <v>43648</v>
       </c>
       <c r="G21" s="6">
         <f ca="1"/>
-        <v>0.99973712595256803</v>
+        <v>0.999912354974277</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="4">
         <f ca="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" s="20">
         <f ca="1"/>
-        <v>2.9997534584254026E-2</v>
+        <v>2.9999999999877902E-2</v>
       </c>
       <c r="D22" s="4">
         <f ca="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="20">
         <f ca="1"/>
-        <v>3.1958947020863659E-2</v>
+        <v>3.195505353249084E-2</v>
       </c>
       <c r="F22" s="5">
         <f ca="1"/>
-        <v>43164</v>
+        <v>43679</v>
       </c>
       <c r="G22" s="6">
         <f ca="1"/>
-        <v>0.99728947741445095</v>
+        <v>0.99720250399272303</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="4">
         <f ca="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="20">
         <f ca="1"/>
-        <v>2.9969740355837438E-2</v>
+        <v>2.9964229288573785E-2</v>
       </c>
       <c r="D23" s="4">
         <f ca="1"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" s="20">
         <f ca="1"/>
-        <v>3.1918720638635101E-2</v>
+        <v>3.1914501251415484E-2</v>
       </c>
       <c r="F23" s="5">
         <f ca="1"/>
-        <v>43195</v>
+        <v>43710</v>
       </c>
       <c r="G23" s="6">
         <f ca="1"/>
-        <v>0.99459309717303701</v>
+        <v>0.99450685326805799</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="4">
         <f ca="1"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="20">
         <f ca="1"/>
-        <v>2.9932051201910781E-2</v>
+        <v>2.9926236723387678E-2</v>
       </c>
       <c r="D24" s="4">
         <f ca="1"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="20">
         <f ca="1"/>
-        <v>3.1877080850765127E-2</v>
+        <v>3.1875366222113843E-2</v>
       </c>
       <c r="F24" s="5">
         <f ca="1"/>
-        <v>43227</v>
+        <v>43740</v>
       </c>
       <c r="G24" s="6">
         <f ca="1"/>
-        <v>0.99182452096117502</v>
+        <v>0.99191157473453095</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="4">
         <f ca="1"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="20">
         <f ca="1"/>
-        <v>2.9893033367962563E-2</v>
+        <v>2.9889567904206604E-2</v>
       </c>
       <c r="D25" s="4">
         <f ca="1"/>
-        <v>369</v>
+        <v>255</v>
       </c>
       <c r="E25" s="20">
         <f ca="1"/>
-        <v>3.1869687547656511E-2</v>
+        <v>3.1384141183256054E-2</v>
       </c>
       <c r="F25" s="5">
         <f ca="1"/>
-        <v>43502</v>
+        <v>43902</v>
       </c>
       <c r="G25" s="6">
         <f ca="1"/>
-        <v>0.96829591811207005</v>
+        <v>0.97831364077527405</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="4">
         <f ca="1"/>
-        <v>769</v>
+        <v>255</v>
       </c>
       <c r="C26" s="20">
         <f ca="1"/>
-        <v>2.9875305502172766E-2</v>
+        <v>2.9889175586716998E-2</v>
       </c>
       <c r="D26" s="4">
         <f ca="1"/>
-        <v>734</v>
+        <v>346</v>
       </c>
       <c r="E26" s="20">
         <f ca="1"/>
-        <v>3.2860881398929509E-2</v>
+        <v>3.1252932205518835E-2</v>
       </c>
       <c r="F26" s="5">
         <f ca="1"/>
-        <v>43867</v>
+        <v>43993</v>
       </c>
       <c r="G26" s="6">
         <f ca="1"/>
-        <v>0.93605699940842502</v>
+        <v>0.97080971404238303</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="4">
         <f ca="1"/>
-        <v>860</v>
+        <v>346</v>
       </c>
       <c r="C27" s="20">
         <f ca="1"/>
-        <v>2.9872438969135162E-2</v>
+        <v>2.9888327101937895E-2</v>
       </c>
       <c r="D27" s="4">
         <f ca="1"/>
-        <v>769</v>
+        <v>368</v>
       </c>
       <c r="E27" s="20">
         <f ca="1"/>
-        <v>3.2668879576789323E-2</v>
+        <v>3.1877970649777376E-2</v>
       </c>
       <c r="F27" s="5">
         <f ca="1"/>
-        <v>43902</v>
+        <v>44015</v>
       </c>
       <c r="G27" s="6">
         <f ca="1"/>
-        <v>0.93348972171515299</v>
+        <v>0.96837237772559304</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="4">
         <f ca="1"/>
-        <v>951</v>
+        <v>437</v>
       </c>
       <c r="C28" s="20">
         <f ca="1"/>
-        <v>2.9869129875100819E-2</v>
+        <v>2.9886993615385604E-2</v>
       </c>
       <c r="D28" s="4">
         <f ca="1"/>
-        <v>860</v>
+        <v>437</v>
       </c>
       <c r="E28" s="21">
         <f ca="1"/>
-        <v>3.2659875501948044E-2</v>
+        <v>3.1292549991530638E-2</v>
       </c>
       <c r="F28" s="5">
         <f ca="1"/>
-        <v>43993</v>
+        <v>44084</v>
       </c>
       <c r="G28" s="6">
         <f ca="1"/>
-        <v>0.92593745220261203</v>
+        <v>0.96322936202696696</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <f ca="1"/>
-        <v>1042</v>
+        <v>528</v>
       </c>
       <c r="C29" s="20">
         <f ca="1"/>
-        <v>2.9865401995320395E-2</v>
+        <v>2.9885227084615051E-2</v>
       </c>
       <c r="D29" s="4">
         <f ca="1"/>
-        <v>951</v>
+        <v>528</v>
       </c>
       <c r="E29" s="20">
         <f ca="1"/>
-        <v>3.2675962621443455E-2</v>
+        <v>3.1361000812367701E-2</v>
       </c>
       <c r="F29" s="5">
         <f ca="1"/>
-        <v>44084</v>
+        <v>44175</v>
       </c>
       <c r="G29" s="6">
         <f ca="1"/>
-        <v>0.91839037048937999</v>
+        <v>0.95564946491992298</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <f ca="1"/>
-        <v>1099</v>
+        <v>619</v>
       </c>
       <c r="C30" s="20">
         <f ca="1"/>
-        <v>2.989003189570405E-2</v>
+        <v>2.9883048102837817E-2</v>
       </c>
       <c r="D30" s="4">
         <f ca="1"/>
-        <v>1042</v>
+        <v>619</v>
       </c>
       <c r="E30" s="20">
         <f ca="1"/>
-        <v>3.2710572398022553E-2</v>
+        <v>3.1445389440407645E-2</v>
       </c>
       <c r="F30" s="5">
         <f ca="1"/>
-        <v>44175</v>
+        <v>44266</v>
       </c>
       <c r="G30" s="6">
         <f ca="1"/>
-        <v>0.91084933577402605</v>
+        <v>0.94807123475326904</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <f ca="1"/>
-        <v>1133</v>
+        <v>710</v>
       </c>
       <c r="C31" s="20">
         <f ca="1"/>
-        <v>2.9861712588857836E-2</v>
+        <v>2.9880470579864982E-2</v>
       </c>
       <c r="D31" s="4">
         <f ca="1"/>
-        <v>1099</v>
+        <v>710</v>
       </c>
       <c r="E31" s="20">
         <f ca="1"/>
-        <v>3.3882889010339312E-2</v>
+        <v>3.1539594822874717E-2</v>
       </c>
       <c r="F31" s="5">
         <f ca="1"/>
-        <v>44232</v>
+        <v>44357</v>
       </c>
       <c r="G31" s="6">
         <f ca="1"/>
-        <v>0.90301577930307997</v>
+        <v>0.94049556845369497</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <f ca="1"/>
-        <v>1224</v>
+        <v>801</v>
       </c>
       <c r="C32" s="20">
         <f ca="1"/>
-        <v>2.985716379332537E-2</v>
+        <v>2.9877504425306345E-2</v>
       </c>
       <c r="D32" s="4">
         <f ca="1"/>
-        <v>1102</v>
+        <v>736</v>
       </c>
       <c r="E32" s="20">
         <f ca="1"/>
-        <v>3.3887585570747669E-2</v>
+        <v>3.2885968642908381E-2</v>
       </c>
       <c r="F32" s="5">
         <f ca="1"/>
-        <v>44235</v>
+        <v>44383</v>
       </c>
       <c r="G32" s="6">
         <f ca="1"/>
-        <v>0.90275154587814599</v>
+        <v>0.93584113787731404</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <f ca="1"/>
-        <v>1315</v>
+        <v>1099</v>
       </c>
       <c r="C33" s="20">
         <f ca="1"/>
-        <v>2.9852243630280606E-2</v>
+        <v>2.9889258673500008E-2</v>
       </c>
       <c r="D33" s="4">
         <f ca="1"/>
-        <v>1133</v>
+        <v>801</v>
       </c>
       <c r="E33" s="21">
         <f ca="1"/>
-        <v>3.2757259267656158E-2</v>
+        <v>3.1686204411345287E-2</v>
       </c>
       <c r="F33" s="5">
         <f ca="1"/>
-        <v>44266</v>
+        <v>44448</v>
       </c>
       <c r="G33" s="6">
         <f ca="1"/>
-        <v>0.90332077137615596</v>
+        <v>0.93282934150647201</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <f ca="1"/>
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="C34" s="20">
         <f ca="1"/>
-        <v>2.9773270506699978E-2</v>
+        <v>2.9773144694181797E-2</v>
       </c>
       <c r="D34" s="4">
         <f ca="1"/>
-        <v>1224</v>
+        <v>1099</v>
       </c>
       <c r="E34" s="21">
         <f ca="1"/>
-        <v>3.2755529140281459E-2</v>
+        <v>3.3910899186571086E-2</v>
       </c>
       <c r="F34" s="5">
         <f ca="1"/>
-        <v>44357</v>
+        <v>44746</v>
       </c>
       <c r="G34" s="6">
         <f ca="1"/>
-        <v>0.89597902968050602</v>
+        <v>0.902939631502093</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -1946,19 +1955,19 @@
       </c>
       <c r="D35" s="4">
         <f ca="1"/>
-        <v>1315</v>
+        <v>1100</v>
       </c>
       <c r="E35" s="20">
         <f ca="1"/>
-        <v>3.2762649573854219E-2</v>
+        <v>3.3910892687794014E-2</v>
       </c>
       <c r="F35" s="5">
         <f ca="1"/>
-        <v>44448</v>
+        <v>44747</v>
       </c>
       <c r="G35" s="6">
         <f ca="1"/>
-        <v>0.88866939035366699</v>
+        <v>0.90285576794948297</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -1972,19 +1981,19 @@
       </c>
       <c r="D36" s="4">
         <f ca="1"/>
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="E36" s="20">
         <f ca="1"/>
-        <v>3.4272242587856105E-2</v>
+        <v>3.4265057302265145E-2</v>
       </c>
       <c r="F36" s="5">
         <f ca="1"/>
-        <v>44599</v>
+        <v>45110</v>
       </c>
       <c r="G36" s="6">
         <f ca="1"/>
-        <v>0.87140721326415704</v>
+        <v>0.87167780449598198</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -1998,19 +2007,19 @@
       </c>
       <c r="D37" s="4">
         <f ca="1"/>
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E37" s="2">
         <f ca="1"/>
-        <v>3.4610366157237227E-2</v>
+        <v>3.4676565419028416E-2</v>
       </c>
       <c r="F37" s="5">
         <f ca="1"/>
-        <v>44963</v>
+        <v>45476</v>
       </c>
       <c r="G37" s="6">
         <f ca="1"/>
-        <v>0.84070225480100902</v>
+        <v>0.84050313966672696</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
